--- a/projeto/Documentos/Planilha de Riscos.xlsx
+++ b/projeto/Documentos/Planilha de Riscos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeli\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\Grupo-02-CCO-Luminous-\projeto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AE72D9-D145-4AA1-9ADF-F969AD425C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{0420C404-6E91-4251-8173-81788989FA50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25365" windowHeight="13755"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -59,11 +58,82 @@
     <t>Perda de Código</t>
   </si>
   <si>
+    <t>Cada integrante possuir uma cópia do código atualizado.</t>
+  </si>
+  <si>
+    <t>Problemas com Conexão</t>
+  </si>
+  <si>
+    <t>Falta de Conhecimento</t>
+  </si>
+  <si>
+    <t>Sobreposição de Código</t>
+  </si>
+  <si>
+    <t>Isolamento</t>
+  </si>
+  <si>
+    <t>Ferramentas de Trabalho/ Estudo</t>
+  </si>
+  <si>
+    <t>Incluir todos, em todas as partes do projeto.</t>
+  </si>
+  <si>
+    <t>Colocar as reuniões em horários estratégicos.</t>
+  </si>
+  <si>
+    <t>Integrantes devem ser autodidatas.</t>
+  </si>
+  <si>
+    <t>Consenso geral antes de atualizar o GIT.</t>
+  </si>
+  <si>
+    <t>Realizar reuniões constantemente, afim de acelerar o projeto.</t>
+  </si>
+  <si>
+    <t>Realizar simulações em plataformas online, referentes ao Arduino.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PROBABILIDADE (P)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1- Baixa                                            2- Média                              3- Alta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -73,7 +143,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -83,7 +153,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -100,7 +170,7 @@
         <i/>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -110,89 +180,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">                      1- Evitar                                     2- Mitigar</t>
     </r>
   </si>
-  <si>
-    <t>Cada integrante possuir uma cópia do código atualizado.</t>
-  </si>
-  <si>
-    <t>Problemas com Conexão</t>
-  </si>
-  <si>
-    <t>Falta de Conhecimento</t>
-  </si>
-  <si>
-    <t>Sobreposição de Código</t>
-  </si>
-  <si>
-    <t>Isolamento</t>
-  </si>
-  <si>
-    <t>Ferramentas de Trabalho/ Estudo</t>
-  </si>
-  <si>
-    <t>Incluir todos, em todas as partes do projeto.</t>
-  </si>
-  <si>
-    <t>Colocar as reuniões em horários estratégicos.</t>
-  </si>
-  <si>
-    <t>Integrantes devem ser autodidatas.</t>
-  </si>
-  <si>
-    <t>Consenso geral antes de atualizar o GIT.</t>
-  </si>
-  <si>
-    <t>Realizar reuniões constantemente, afim de acelerar o projeto.</t>
-  </si>
-  <si>
-    <t>Realizar simulações em plataformas online, referentes ao Arduino.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PROBABILIDADE (P)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1- Baixa                                            2- Média                              3- Alta</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,22 +203,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFC000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFFC000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -228,9 +219,17 @@
       <i/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFC000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7575"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,28 +321,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,75 +667,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5811DB-BBA5-4924-AEC6-5CE414CAFA2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+      <selection activeCell="B2" sqref="B2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -756,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -768,7 +767,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -788,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -800,12 +799,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -820,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -832,12 +831,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -852,10 +851,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -864,12 +863,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -884,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -896,12 +895,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -916,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -928,12 +927,12 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -948,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -962,6 +961,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
@@ -978,46 +1017,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
